--- a/UR_Stimmrechtsalter_texte.xlsx
+++ b/UR_Stimmrechtsalter_texte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="141">
   <si>
     <t>Gemeinde_Nr</t>
   </si>
@@ -365,67 +365,76 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Intro_Ja</t>
-  </si>
-  <si>
-    <t>Intro_Nein</t>
-  </si>
-  <si>
-    <t>90,6 Prozent der Stimmbürgerinnen und Stimmbürger von Altdorf UR haben dem Stimmrechtsalter 16 zugestimmt.</t>
-  </si>
-  <si>
-    <t>61,5 Prozent der Stimmbürgerinnen und Stimmbürger von Andermatt haben dem Stimmrechtsalter 16 zugestimmt.</t>
-  </si>
-  <si>
-    <t>85,9 Prozent der Stimmbürgerinnen und Stimmbürger von Attinghausen haben dem Stimmrechtsalter 16 zugestimmt.</t>
-  </si>
-  <si>
-    <t>94 Prozent der Stimmbürgerinnen und Stimmbürger von Bürglen UR haben dem Stimmrechtsalter 16 zugestimmt.</t>
-  </si>
-  <si>
-    <t>Erstfeld hat das Stimmrechtsalter 16 mit 73,5 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>87,8 Prozent der Stimmbürgerinnen und Stimmbürger von Flüelen haben dem Stimmrechtsalter 16 zugestimmt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Göschenen. 96 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Gurtnellen: 53,2 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Hospental: 68,5 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Isenthal. 65,6 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Realp: 53,1 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Schattdorf: 90,9 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Seedorf UR: 64,2 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>68,6 Prozent der Stimmbürgerinnen und Stimmbürger von Seelisberg haben dem Stimmrechtsalter 16 zugestimmt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Silenen. 51,2 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Sisikon. 53,7 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Spiringen hat das Stimmrechtsalter 16 mit 70 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Unterschächen hat das Stimmrechtsalter 16 mit 59,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>65 Prozent der Stimmbürgerinnen und Stimmbürger von Wassen haben dem Stimmrechtsalter 16 zugestimmt.</t>
+    <t>Intro_Ja;KantonPhrase_Ja_Ja</t>
+  </si>
+  <si>
+    <t>Intro_Ja;KantonPhrase_Highest_Yes_Kant</t>
+  </si>
+  <si>
+    <t>Intro_Nein;KantonPhrase_Nein_Ja</t>
+  </si>
+  <si>
+    <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
+  </si>
+  <si>
+    <t>90,6 Prozent der Stimmbürgerinnen und Stimmbürger von Altdorf UR haben dem Stimmrechtsalter 16 zugestimmt. Altdorf UR hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>61,5 Prozent der Stimmbürgerinnen und Stimmbürger von Andermatt haben dem Stimmrechtsalter 16 zugestimmt. Andermatt hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>85,9 Prozent der Stimmbürgerinnen und Stimmbürger von Attinghausen haben dem Stimmrechtsalter 16 zugestimmt. Attinghausen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>94 Prozent der Stimmbürgerinnen und Stimmbürger von Bürglen UR haben dem Stimmrechtsalter 16 zugestimmt. Bürglen UR hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Erstfeld hat das Stimmrechtsalter 16 mit 73,5 Prozent abgelehnt. Erstfeld hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>87,8 Prozent der Stimmbürgerinnen und Stimmbürger von Flüelen haben dem Stimmrechtsalter 16 zugestimmt. Flüelen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Göschenen. 96 Prozent haben sie verworfen. Göschenen hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Gurtnellen: 53,2 Prozent haben die Vorlage abgelehnt. Gurtnellen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Hospental: 68,5 Prozent haben die Vorlage abgelehnt. Hospental hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Isenthal. 65,6 Prozent haben sie verworfen. Isenthal hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Realp: 53,1 Prozent haben die Vorlage abgelehnt. Realp hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Schattdorf: 90,9 Prozent haben die Vorlage abgelehnt. Schattdorf hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Seedorf UR: 64,2 Prozent haben die Vorlage abgelehnt. Seedorf UR hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>68,6 Prozent der Stimmbürgerinnen und Stimmbürger von Seelisberg haben dem Stimmrechtsalter 16 zugestimmt. Seelisberg hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Silenen. 51,2 Prozent haben sie verworfen. Silenen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Stimmrechtsalter 16 in Sisikon. 53,7 Prozent haben sie verworfen. Sisikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Spiringen hat das Stimmrechtsalter 16 mit 70 Prozent angenommen. Spiringen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Unterschächen hat das Stimmrechtsalter 16 mit 59,3 Prozent abgelehnt. Unterschächen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>65 Prozent der Stimmbürgerinnen und Stimmbürger von Wassen haben dem Stimmrechtsalter 16 zugestimmt. Wassen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>NA NA</t>
   </si>
 </sst>
 </file>
@@ -682,13 +691,13 @@
         <v>117</v>
       </c>
       <c r="AG2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI2" t="e">
-        <v>#N/A</v>
+        <v>121</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
         <v>90.56208729263972</v>
@@ -792,13 +801,13 @@
         <v>117</v>
       </c>
       <c r="AG3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI3" t="e">
-        <v>#N/A</v>
+        <v>122</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
         <v>61.502145922746784</v>
@@ -902,13 +911,13 @@
         <v>117</v>
       </c>
       <c r="AG4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI4" t="e">
-        <v>#N/A</v>
+        <v>123</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
         <v>85.91462157145803</v>
@@ -1003,22 +1012,22 @@
         <v>#N/A</v>
       </c>
       <c r="AD5" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="AE5" t="s">
         <v>116</v>
       </c>
       <c r="AF5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI5" t="e">
-        <v>#N/A</v>
+        <v>124</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>140</v>
       </c>
       <c r="AJ5" t="n">
         <v>93.99882329868602</v>
@@ -1119,16 +1128,16 @@
         <v>116</v>
       </c>
       <c r="AF6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" t="e">
-        <v>#N/A</v>
+        <v>125</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
         <v>26.45805293853746</v>
@@ -1232,13 +1241,13 @@
         <v>117</v>
       </c>
       <c r="AG7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI7" t="e">
-        <v>#N/A</v>
+        <v>126</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>140</v>
       </c>
       <c r="AJ7" t="n">
         <v>87.78309409888357</v>
@@ -1336,19 +1345,19 @@
         <v>116</v>
       </c>
       <c r="AE8" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="AF8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" t="e">
-        <v>#N/A</v>
+        <v>127</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
         <v>4.025527736867943</v>
@@ -1449,16 +1458,16 @@
         <v>116</v>
       </c>
       <c r="AF9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" t="e">
-        <v>#N/A</v>
+        <v>128</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>140</v>
       </c>
       <c r="AJ9" t="n">
         <v>46.829397718227646</v>
@@ -1559,16 +1568,16 @@
         <v>116</v>
       </c>
       <c r="AF10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" t="e">
-        <v>#N/A</v>
+        <v>129</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
         <v>31.495786516853933</v>
@@ -1669,16 +1678,16 @@
         <v>116</v>
       </c>
       <c r="AF11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" t="e">
-        <v>#N/A</v>
+        <v>130</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>140</v>
       </c>
       <c r="AJ11" t="n">
         <v>34.3969967151572</v>
@@ -1779,16 +1788,16 @@
         <v>116</v>
       </c>
       <c r="AF12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" t="e">
-        <v>#N/A</v>
+        <v>131</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>140</v>
       </c>
       <c r="AJ12" t="n">
         <v>46.85998828353837</v>
@@ -1889,16 +1898,16 @@
         <v>116</v>
       </c>
       <c r="AF13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" t="e">
-        <v>#N/A</v>
+        <v>132</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>140</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.133192389006343</v>
@@ -1999,16 +2008,16 @@
         <v>116</v>
       </c>
       <c r="AF14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
-        <v>#N/A</v>
+        <v>133</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
         <v>35.79806882250016</v>
@@ -2112,13 +2121,13 @@
         <v>117</v>
       </c>
       <c r="AG15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
-        <v>#N/A</v>
+        <v>134</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
         <v>68.60353367339395</v>
@@ -2219,16 +2228,16 @@
         <v>116</v>
       </c>
       <c r="AF16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" t="e">
-        <v>#N/A</v>
+        <v>135</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
         <v>48.799226347176706</v>
@@ -2329,16 +2338,16 @@
         <v>116</v>
       </c>
       <c r="AF17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI17" t="e">
-        <v>#N/A</v>
+        <v>136</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
         <v>46.28721750567978</v>
@@ -2442,13 +2451,13 @@
         <v>117</v>
       </c>
       <c r="AG18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" t="e">
-        <v>#N/A</v>
+        <v>137</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>140</v>
       </c>
       <c r="AJ18" t="n">
         <v>70.03823948414185</v>
@@ -2549,16 +2558,16 @@
         <v>116</v>
       </c>
       <c r="AF19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" t="e">
-        <v>#N/A</v>
+        <v>138</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>140</v>
       </c>
       <c r="AJ19" t="n">
         <v>40.747206703910614</v>
@@ -2662,13 +2671,13 @@
         <v>117</v>
       </c>
       <c r="AG20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" t="e">
-        <v>#N/A</v>
+        <v>139</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>140</v>
       </c>
       <c r="AJ20" t="n">
         <v>65.0277863538129</v>
